--- a/Europe_analysis_pool_2.xlsx
+++ b/Europe_analysis_pool_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8399e2cf0290c860/Work/Zinpro/Chromo Europa/Dash Europa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{E70D5FFC-A171-4464-A61F-913ED326FA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8C4E8C9-7A02-451B-AA0A-A61A61D9891E}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{E70D5FFC-A171-4464-A61F-913ED326FA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8388E68A-3302-4698-A76B-F780432CEE4A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9F2EAEA3-81F5-417D-974E-73723955FC34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9F2EAEA3-81F5-417D-974E-73723955FC34}"/>
   </bookViews>
   <sheets>
     <sheet name="AGE" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
   <si>
     <t>Age</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Feed convertion ratio, kg</t>
+  </si>
+  <si>
+    <t>Feed conversion ratio, kg</t>
   </si>
 </sst>
 </file>
@@ -3536,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E12F36-ECFE-4379-B1A3-630DE5EA0842}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,7 +3559,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4408,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD69FD9B-1FD1-4FA4-BEBE-6873D7212BCA}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4425,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4480,7 +4483,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4493,7 +4496,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/Europe_analysis_pool_2.xlsx
+++ b/Europe_analysis_pool_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8399e2cf0290c860/Work/Zinpro/Chromo Europa/Dash Europa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\OneDrive\Work\Zinpro\Chromo Europa\Dash_Europa2\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{E70D5FFC-A171-4464-A61F-913ED326FA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8388E68A-3302-4698-A76B-F780432CEE4A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48FB5A5-83E4-4249-AF30-A07C4B4728DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9F2EAEA3-81F5-417D-974E-73723955FC34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F2EAEA3-81F5-417D-974E-73723955FC34}"/>
   </bookViews>
   <sheets>
     <sheet name="AGE" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
   <si>
     <t>Age</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Feed intake, kg</t>
-  </si>
-  <si>
-    <t>Feed convertion ratio, kg</t>
   </si>
   <si>
     <t>Feed conversion ratio, kg</t>
@@ -119,10 +116,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,13 +437,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9005302F-CBE1-4324-A703-34A9BAB7203D}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3540,7 +3533,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,7 +3552,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4411,8 +4404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD69FD9B-1FD1-4FA4-BEBE-6873D7212BCA}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4428,7 +4421,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4483,7 +4476,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,7 +4489,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
